--- a/biology/Botanique/Iteaceae/Iteaceae.xlsx
+++ b/biology/Botanique/Iteaceae/Iteaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Iteaceae (Itéacées) regroupe des plantes dicotylédones ; elle comprend une vingtaine d'espèces réparties en 2 à 3 genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Itea, issu du grec ιτέα / itea et du latin, nom du saule ou osier, donné à ce genre en raison de la rapidité de croissance de certaines espèces, et des marges des feuilles dentelées et  glandulaires, semblables à celles de saules.
 </t>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[1] cette famille peut inclure (optionnellement) les plantes qui autrefois étaient assignées aux Pterostemonaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) cette famille peut inclure (optionnellement) les plantes qui autrefois étaient assignées aux Pterostemonaceae.
 Ce sont des arbres ou des arbustes, certains à feuilles persistantes, parfois parcheminées et épineuses, des régions tempérées à tropicales, originaires d'Asie, d'Amérique du Nord (côte est), d'Afrique tropicale et du sud.
-La classification classique de Cronquist (1981)[2] assigne ces plantes aux Grossulariacées.
+La classification classique de Cronquist (1981) assigne ces plantes aux Grossulariacées.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[3] inclut dans cette famille le genre Pterostemon, précédemment placé dans la famille Pterostemonaceae.
-Selon NCBI  (27 avr. 2010)[4] (Plus conforme à APGIII puisqu'il incorpore le genre Pterostemon anciennement dans Pterostemonaceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille le genre Pterostemon, précédemment placé dans la famille Pterostemonaceae.
+Selon NCBI  (27 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Pterostemon anciennement dans Pterostemonaceae) :
 genre Choristylis
 genre Itea
 genre Pterostemon (anciennement dans Pterostemonaceae)
-Selon Angiosperm Phylogeny Website                        (27 avr. 2010)[5] et DELTA Angio           (27 avr. 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (27 avr. 2010) et DELTA Angio           (27 avr. 2010) :
 genre Choristylis
 genre Itea</t>
         </is>
@@ -612,9 +630,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Choristylis
 Choristylis rhamnoides
 genre Itea
